--- a/questions.xlsx
+++ b/questions.xlsx
@@ -593,7 +593,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://i.imgur.com/WgldkQw.png</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -749,7 +753,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://i.imgur.com/L63kJXU.png</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -905,7 +913,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://i.imgur.com/Nmo4XIf.png</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1425,7 +1437,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://i.imgur.com/9vC9rVK.png</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1529,7 +1545,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://i.imgur.com/XbOsKLi.png</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1607,7 +1627,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://i.imgur.com/Gv8UuzZ.png</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1711,7 +1735,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://i.imgur.com/oZKYwF1.png</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1763,7 +1791,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://i.imgur.com/Mx3rbQi.png</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2829,7 +2861,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>https://i.imgur.com/F6QuGRc.png</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
